--- a/data/trans_orig/IP16B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B136DC3-0FA7-42A1-B1B6-3D65C28C6D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CE0456A-6BCE-4E1B-B0B0-63C630F86CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7B437011-81BC-415A-8C1D-0567434C8BB2}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CA6055F9-6526-4593-B1FB-7F3AB390096B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,18 +67,48 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -88,37 +118,40 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>76,75%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -140,39 +173,6 @@
   </si>
   <si>
     <t>73,58%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
   </si>
   <si>
     <t>7,57%</t>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6614258B-BBE8-4B52-9B6A-225F1D1B1BC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CD3312-3EF0-4CE0-9A96-40A4E2BEF0AE}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -816,98 +816,86 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -916,54 +904,48 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
-      </c>
-      <c r="N6" s="7">
-        <v>6186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -975,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -990,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1005,19 +987,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1026,13 +1008,13 @@
         <v>1411</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1041,13 +1023,13 @@
         <v>1348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -1056,13 +1038,13 @@
         <v>2760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1077,13 +1059,13 @@
         <v>1411</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1092,13 +1074,13 @@
         <v>1348</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1107,18 +1089,18 @@
         <v>2760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1130,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1145,13 +1127,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1160,64 +1142,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>3445</v>
+        <v>1928</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>688</v>
+        <v>4258</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>4133</v>
+        <v>6186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1226,141 +1208,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>3445</v>
+        <v>1928</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>688</v>
+        <v>4258</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N12" s="7">
-        <v>4133</v>
+        <v>6186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>726</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>727</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2088</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>981</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3069</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,66 +1363,72 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2814</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>981</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3796</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1437,79 +1437,79 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>2088</v>
+        <v>3445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>981</v>
+        <v>688</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>3069</v>
+        <v>4133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1518,49 +1518,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>2814</v>
+        <v>3445</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>981</v>
+        <v>688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>3796</v>
+        <v>4133</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,7 +1580,7 @@
         <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>46</v>
@@ -1592,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>47</v>
@@ -1610,7 +1610,7 @@
         <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>49</v>
@@ -1619,7 +1619,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>13</v>
@@ -1634,7 +1634,7 @@
         <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -1643,13 +1643,13 @@
         <v>7275</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -1664,7 +1664,7 @@
         <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1679,13 @@
         <v>9599</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -1694,13 +1694,13 @@
         <v>7275</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -1709,13 +1709,13 @@
         <v>16874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1736,7 +1736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519BE748-959A-46E3-AA7B-1F24347FD8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205B9BF7-03DC-4CE4-B342-AFA89133DD8A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1856,98 +1856,86 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,54 +1944,48 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>747</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1422</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2015,26 +1997,26 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2043,19 +2025,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -2064,26 +2046,26 @@
         <v>2605</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2092,13 +2074,13 @@
         <v>2605</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,26 +2095,26 @@
         <v>2605</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -2141,18 +2123,18 @@
         <v>2605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2164,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2179,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2194,64 +2176,64 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>887</v>
+        <v>675</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>747</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1422</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>2153</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3040</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,51 +2245,51 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>887</v>
+        <v>675</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>2153</v>
+        <v>747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>3040</v>
+        <v>1422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2315,86 +2297,98 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>678</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>678</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1902</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2986</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N14" s="7">
+        <v>4889</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,48 +2397,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1902</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3664</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N15" s="7">
+        <v>5567</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2456,94 +2456,94 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>887</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="7">
         <v>3</v>
       </c>
-      <c r="D17" s="7">
-        <v>1902</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
       <c r="I17" s="7">
-        <v>2986</v>
+        <v>2153</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>4889</v>
+        <v>3040</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,49 +2552,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>887</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
-        <v>1902</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
       <c r="I18" s="7">
-        <v>3664</v>
+        <v>2153</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>5567</v>
+        <v>3040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>64</v>
@@ -2629,7 +2629,7 @@
         <v>65</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>66</v>
@@ -2644,7 +2644,7 @@
         <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>68</v>
@@ -2653,7 +2653,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -2662,13 +2662,13 @@
         <v>6070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2683,7 +2683,7 @@
         <v>71</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2698,7 +2698,7 @@
         <v>73</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2713,13 @@
         <v>6070</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2728,13 +2728,13 @@
         <v>6564</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -2743,13 +2743,13 @@
         <v>12634</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2770,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF5B134-9617-48EC-9FAE-2A71D595F846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD2D301-D4B8-418C-968C-E77D96028FDE}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2890,94 +2890,86 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,52 +2978,48 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3043,26 +3031,26 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3071,19 +3059,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3092,26 +3080,26 @@
         <v>677</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3120,13 +3108,13 @@
         <v>677</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,26 +3129,26 @@
         <v>677</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3169,18 +3157,18 @@
         <v>677</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3192,28 +3180,26 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3222,64 +3208,62 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>2644</v>
+        <v>1410</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1410</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>705</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3349</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,54 +3272,52 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>2644</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>3349</v>
+        <v>1410</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3343,86 +3325,98 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>455</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>455</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1479</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1220</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2699</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,48 +3425,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1479</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1675</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N15" s="7">
+        <v>3154</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3484,94 +3484,94 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1479</v>
+        <v>2644</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1220</v>
+        <v>705</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>2699</v>
+        <v>3349</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,49 +3580,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>1479</v>
+        <v>2644</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1675</v>
+        <v>705</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
       </c>
       <c r="N18" s="7">
-        <v>3154</v>
+        <v>3349</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>81</v>
@@ -3657,10 +3657,10 @@
         <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>84</v>
@@ -3681,7 +3681,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>9</v>
@@ -3690,13 +3690,13 @@
         <v>6210</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3708,10 +3708,10 @@
         <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -3726,7 +3726,7 @@
         <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3741,13 @@
         <v>6210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3756,13 +3756,13 @@
         <v>2380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -3771,13 +3771,13 @@
         <v>8590</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CE0456A-6BCE-4E1B-B0B0-63C630F86CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29968D3C-A197-4860-A33B-72FA1DFEA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{CA6055F9-6526-4593-B1FB-7F3AB390096B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86B3D0F8-0429-41A3-AF30-566DDCDE38B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="90">
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2007 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -70,18 +70,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -94,21 +106,18 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
@@ -118,18 +127,21 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
     <t>25,81%</t>
   </si>
   <si>
@@ -139,24 +151,21 @@
     <t>19,14%</t>
   </si>
   <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
+    <t>75,59%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
@@ -166,19 +175,25 @@
     <t>26,42%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>36,65%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -187,49 +202,52 @@
     <t>4,31%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2012 (Tasa respuesta: 0,86%)</t>
   </si>
   <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>74,0%</t>
+    <t>70,4%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -238,49 +256,43 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>50,46%</t>
+    <t>45,35%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
+    <t>30,92%</t>
   </si>
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2015 (Tasa respuesta: 0,61%)</t>
   </si>
   <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
     <t>27,16%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -289,22 +301,13 @@
     <t>19,11%</t>
   </si>
   <si>
+    <t>75,0%</t>
+  </si>
+  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
+    <t>30,55%</t>
   </si>
 </sst>
 </file>
@@ -315,7 +318,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -411,39 +414,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -495,7 +498,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -606,13 +609,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -621,6 +617,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -685,19 +688,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CD3312-3EF0-4CE0-9A96-40A4E2BEF0AE}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51645F63-3D25-471E-8891-6F383D14BDE1}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -951,10 +974,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1411</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -966,10 +989,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1348</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>14</v>
@@ -981,19 +1004,19 @@
         <v>16</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1002,10 +1025,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>18</v>
@@ -1017,10 +1040,10 @@
         <v>20</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1348</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>18</v>
@@ -1032,19 +1055,19 @@
         <v>20</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1059,13 +1082,13 @@
         <v>1411</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1074,13 +1097,13 @@
         <v>1348</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1089,13 +1112,13 @@
         <v>2760</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1106,49 +1129,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1928</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>4258</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>6186</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1157,49 +1180,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1928</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>4258</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>6186</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1214,13 +1237,13 @@
         <v>1928</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1229,13 +1252,13 @@
         <v>4258</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -1244,13 +1267,13 @@
         <v>6186</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1261,25 +1284,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>726</v>
+        <v>2088</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
@@ -1291,19 +1314,19 @@
         <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>727</v>
+        <v>3069</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1312,25 +1335,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>2088</v>
+        <v>726</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>18</v>
@@ -1342,19 +1365,19 @@
         <v>20</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>3069</v>
+        <v>727</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>36</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,13 +1392,13 @@
         <v>2814</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -1384,13 +1407,13 @@
         <v>981</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -1399,13 +1422,13 @@
         <v>3796</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1416,49 +1439,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>3445</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>4133</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1467,49 +1490,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>3445</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>4133</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,13 +1547,13 @@
         <v>3445</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -1539,13 +1562,13 @@
         <v>688</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -1554,13 +1577,13 @@
         <v>4133</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1571,49 +1594,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7">
-        <v>726</v>
+        <v>8873</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>7275</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>726</v>
+        <v>16148</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1622,49 +1645,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>8873</v>
+        <v>726</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>7275</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="M20" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>16148</v>
+        <v>726</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1702,13 @@
         <v>9599</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -1694,13 +1717,13 @@
         <v>7275</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -1709,13 +1732,18 @@
         <v>16874</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1736,8 +1764,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205B9BF7-03DC-4CE4-B342-AFA89133DD8A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D012F771-9CBD-44D8-A425-BF516BA0690D}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1753,7 +1781,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1991,19 +2019,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>2605</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2019,19 +2047,19 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2605</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,19 +2068,19 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2605</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2068,19 +2096,19 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2605</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,13 +2123,13 @@
         <v>2605</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2123,13 +2151,13 @@
         <v>2605</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,40 +2168,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>675</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>747</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1422</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>14</v>
@@ -2191,40 +2219,40 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1422</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>18</v>
@@ -2248,13 +2276,13 @@
         <v>675</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -2263,13 +2291,13 @@
         <v>747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -2278,13 +2306,13 @@
         <v>1422</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2295,49 +2323,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>678</v>
+        <v>2986</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>678</v>
+        <v>4889</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2346,49 +2374,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1902</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>2986</v>
+        <v>678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>4889</v>
+        <v>678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2431,13 @@
         <v>1902</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -2418,13 +2446,13 @@
         <v>3664</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -2433,13 +2461,13 @@
         <v>5567</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,49 +2478,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2153</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>3040</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,49 +2529,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>2153</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>3040</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,13 +2586,13 @@
         <v>887</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2573,13 +2601,13 @@
         <v>2153</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -2588,13 +2616,13 @@
         <v>3040</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,49 +2633,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>6070</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>678</v>
+        <v>5886</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="N19" s="7">
-        <v>678</v>
+        <v>11956</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,49 +2684,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>6070</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="H20" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>5886</v>
+        <v>678</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="M20" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>11956</v>
+        <v>678</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2741,13 @@
         <v>6070</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2728,13 +2756,13 @@
         <v>6564</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -2743,13 +2771,18 @@
         <v>12634</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2770,8 +2803,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD2D301-D4B8-418C-968C-E77D96028FDE}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE358F82-ADCF-4FD6-8C15-02C6940F1CD5}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2787,7 +2820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3025,19 +3058,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3053,19 +3086,19 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,19 +3107,19 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3102,19 +3135,19 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3162,13 @@
         <v>677</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3157,13 +3190,13 @@
         <v>677</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,10 +3207,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
@@ -3202,10 +3235,10 @@
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>1410</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>14</v>
@@ -3223,10 +3256,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>1410</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>18</v>
@@ -3251,10 +3284,10 @@
         <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>1410</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>18</v>
@@ -3278,13 +3311,13 @@
         <v>1410</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3306,13 +3339,13 @@
         <v>1410</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,10 +3356,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1479</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -3338,34 +3371,34 @@
         <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>455</v>
+        <v>1220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>455</v>
+        <v>2699</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,10 +3407,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1479</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>18</v>
@@ -3389,34 +3422,34 @@
         <v>20</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1220</v>
+        <v>455</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>2699</v>
+        <v>455</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3464,13 @@
         <v>1479</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -3446,13 +3479,13 @@
         <v>1675</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
@@ -3461,13 +3494,13 @@
         <v>3154</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,49 +3511,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2644</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>705</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>3349</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,49 +3562,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>2644</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>3349</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3619,13 @@
         <v>2644</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -3601,13 +3634,13 @@
         <v>705</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -3616,13 +3649,13 @@
         <v>3349</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,49 +3666,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>6210</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1925</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>455</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>455</v>
+        <v>8135</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>83</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,49 +3717,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>6210</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1925</v>
+        <v>455</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>86</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>8135</v>
+        <v>455</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3774,13 @@
         <v>6210</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3756,13 +3789,13 @@
         <v>2380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -3771,13 +3804,18 @@
         <v>8590</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29968D3C-A197-4860-A33B-72FA1DFEA978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E48071-2F7C-40D4-BE76-4C79808B3EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86B3D0F8-0429-41A3-AF30-566DDCDE38B1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{011EA08E-3382-41C1-9348-A14396005810}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="92">
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2007 (Tasa respuesta: 1,24%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,7 +79,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -106,7 +106,7 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -127,7 +127,7 @@
     <t>17,08%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>74,19%</t>
@@ -139,7 +139,7 @@
     <t>80,86%</t>
   </si>
   <si>
-    <t>24,41%</t>
+    <t>17,14%</t>
   </si>
   <si>
     <t>25,81%</t>
@@ -151,7 +151,7 @@
     <t>19,14%</t>
   </si>
   <si>
-    <t>75,59%</t>
+    <t>82,86%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -178,7 +178,7 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>63,35%</t>
+    <t>69,21%</t>
   </si>
   <si>
     <t>85,49%</t>
@@ -187,13 +187,13 @@
     <t>95,69%</t>
   </si>
   <si>
-    <t>82,03%</t>
+    <t>80,49%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>36,65%</t>
+    <t>30,79%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -202,7 +202,7 @@
     <t>4,31%</t>
   </si>
   <si>
-    <t>17,97%</t>
+    <t>19,51%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -220,7 +220,7 @@
     <t>87,81%</t>
   </si>
   <si>
-    <t>49,37%</t>
+    <t>52,04%</t>
   </si>
   <si>
     <t>18,51%</t>
@@ -232,7 +232,7 @@
     <t>12,19%</t>
   </si>
   <si>
-    <t>50,63%</t>
+    <t>47,96%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -241,13 +241,13 @@
     <t>89,67%</t>
   </si>
   <si>
-    <t>54,65%</t>
+    <t>58,41%</t>
   </si>
   <si>
     <t>94,63%</t>
   </si>
   <si>
-    <t>69,08%</t>
+    <t>75,93%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -256,16 +256,16 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>45,35%</t>
+    <t>41,59%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2015 (Tasa respuesta: 0,61%)</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2016 (Tasa respuesta: 0,61%)</t>
   </si>
   <si>
     <t>72,84%</t>
@@ -274,12 +274,18 @@
     <t>85,58%</t>
   </si>
   <si>
+    <t>40,0%</t>
+  </si>
+  <si>
     <t>27,16%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
+    <t>60,0%</t>
+  </si>
+  <si>
     <t>81,26%</t>
   </si>
   <si>
@@ -292,7 +298,7 @@
     <t>94,71%</t>
   </si>
   <si>
-    <t>69,45%</t>
+    <t>75,33%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -307,7 +313,7 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>30,55%</t>
+    <t>24,67%</t>
   </si>
 </sst>
 </file>
@@ -719,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51645F63-3D25-471E-8891-6F383D14BDE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEC46CF-B19D-4E10-9252-6E9C15543503}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1764,7 +1770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D012F771-9CBD-44D8-A425-BF516BA0690D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED371CF9-EBB5-4CBE-B84F-286FEE0F7CFA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2803,7 +2809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE358F82-ADCF-4FD6-8C15-02C6940F1CD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CDCB2-BFE2-486F-9512-0A9C459497A4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3401,7 @@
         <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3428,7 +3434,7 @@
         <v>455</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>18</v>
@@ -3443,13 +3449,13 @@
         <v>455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,7 +3681,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3687,10 +3693,10 @@
         <v>1925</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3702,10 +3708,10 @@
         <v>8135</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3729,7 +3735,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3738,13 +3744,13 @@
         <v>455</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3753,13 +3759,13 @@
         <v>455</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16B03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B03-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5E48071-2F7C-40D4-BE76-4C79808B3EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAFB279-685F-44D4-BB83-33BD365940D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{011EA08E-3382-41C1-9348-A14396005810}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D3C08B6C-F9CF-43D8-8BFC-9C6FCBC2219E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="89">
   <si>
     <t>Menores según si ha consumido recostituyentes recetados por el médico en 2007 (Tasa respuesta: 1,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,253 +67,244 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2012 (Tasa respuesta: 0,86%)</t>
+  </si>
+  <si>
     <t>—%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2012 (Tasa respuesta: 0,86%)</t>
-  </si>
-  <si>
     <t>81,49%</t>
   </si>
   <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2016 (Tasa respuesta: 0,61%)</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>70,4%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido recostituyentes recetados por el médico en 2016 (Tasa respuesta: 0,61%)</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>80,89%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
     <t>94,71%</t>
   </si>
   <si>
-    <t>75,33%</t>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>18,74%</t>
   </si>
   <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
     <t>5,29%</t>
   </si>
   <si>
-    <t>24,67%</t>
+    <t>24,26%</t>
   </si>
 </sst>
 </file>
@@ -725,8 +716,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEC46CF-B19D-4E10-9252-6E9C15543503}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F57C84-1693-43C6-895B-D078C42362EE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -843,88 +834,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1348</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1411</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2760</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -933,102 +936,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1348</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1411</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2760</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>1411</v>
+        <v>4258</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1348</v>
+        <v>1928</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>2760</v>
+        <v>6186</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1037,13 +1046,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1052,13 +1061,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1067,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1082,108 +1091,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>1411</v>
+        <v>4258</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1348</v>
+        <v>1928</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N9" s="7">
-        <v>2760</v>
+        <v>6186</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>981</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>1928</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
       <c r="I10" s="7">
-        <v>4258</v>
+        <v>2088</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>6186</v>
+        <v>3069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -1192,43 +1201,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>727</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1237,123 +1246,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1928</v>
+        <v>981</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>4258</v>
+        <v>2814</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>6186</v>
+        <v>3796</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2088</v>
+        <v>688</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>981</v>
+        <v>3445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>3069</v>
+        <v>4133</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1362,28 +1371,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,108 +1401,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>2814</v>
+        <v>688</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" s="7">
-        <v>981</v>
+        <v>3445</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
       </c>
       <c r="N15" s="7">
-        <v>3796</v>
+        <v>4133</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>3445</v>
+        <v>7275</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>688</v>
+        <v>8873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N16" s="7">
-        <v>4133</v>
+        <v>16148</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1502,43 +1511,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,217 +1556,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>3445</v>
+        <v>7275</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>688</v>
+        <v>9599</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="N18" s="7">
-        <v>4133</v>
+        <v>16874</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13</v>
-      </c>
-      <c r="D19" s="7">
-        <v>8873</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>7275</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>25</v>
-      </c>
-      <c r="N19" s="7">
-        <v>16148</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>726</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>726</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>14</v>
-      </c>
-      <c r="D21" s="7">
-        <v>9599</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7275</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>26</v>
-      </c>
-      <c r="N21" s="7">
-        <v>16874</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1770,8 +1623,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED371CF9-EBB5-4CBE-B84F-286FEE0F7CFA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398EB756-8855-49C2-9B2C-13EBE1F3418B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1787,7 +1640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1892,84 +1745,92 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2605</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2605</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,96 +1843,102 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2605</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2605</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2605</v>
+        <v>747</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>675</v>
+      </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>2605</v>
+        <v>1422</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2080,41 +1947,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,121 +1992,123 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>2605</v>
+        <v>747</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>675</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>2605</v>
+        <v>1422</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>675</v>
+        <v>2986</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>747</v>
+        <v>1902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>1422</v>
+        <v>4889</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2246,28 +2117,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,54 +2147,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7">
-        <v>675</v>
+        <v>3664</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>747</v>
+        <v>1902</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>1422</v>
+        <v>5567</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2332,52 +2203,52 @@
         <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>1902</v>
+        <v>2153</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>887</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3040</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2986</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4889</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2386,43 +2257,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>678</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>678</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,120 +2305,120 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>1902</v>
+        <v>2153</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>3664</v>
+        <v>887</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N15" s="7">
-        <v>5567</v>
+        <v>3040</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D16" s="7">
-        <v>887</v>
+        <v>5886</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>2153</v>
+        <v>6070</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N16" s="7">
-        <v>3040</v>
+        <v>11956</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2556,28 +2427,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,217 +2457,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>887</v>
+        <v>6564</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>2153</v>
+        <v>6070</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>3040</v>
+        <v>12634</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6070</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>9</v>
-      </c>
-      <c r="I19" s="7">
-        <v>5886</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>17</v>
-      </c>
-      <c r="N19" s="7">
-        <v>11956</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>678</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>678</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>8</v>
-      </c>
-      <c r="D21" s="7">
-        <v>6070</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>10</v>
-      </c>
-      <c r="I21" s="7">
-        <v>6564</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>18</v>
-      </c>
-      <c r="N21" s="7">
-        <v>12634</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>55</v>
+      <c r="A19" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2809,8 +2524,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7CDCB2-BFE2-486F-9512-0A9C459497A4}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAF2047-41A5-486E-A793-DF85A87A4BC5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2826,7 +2541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2931,84 +2646,92 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>677</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>677</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,125 +2744,129 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>677</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>677</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1410</v>
+      </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>677</v>
+        <v>1410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
@@ -3147,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,52 +2889,52 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>677</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1410</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>677</v>
+        <v>1410</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3216,93 +2943,97 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1410</v>
+        <v>1220</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1479</v>
+      </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>1410</v>
+        <v>2699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,106 +3042,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1675</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="7">
-        <v>1410</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="7">
+        <v>1479</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>1410</v>
+        <v>3154</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1479</v>
+        <v>705</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2644</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1220</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>2699</v>
+        <v>3349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3419,43 +3152,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>455</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,123 +3197,123 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>1479</v>
+        <v>705</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" s="7">
-        <v>1675</v>
+        <v>2644</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>5</v>
       </c>
       <c r="N15" s="7">
-        <v>3154</v>
+        <v>3349</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2644</v>
+        <v>1925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>705</v>
+        <v>6210</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>3349</v>
+        <v>8135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3589,28 +3322,28 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,214 +3355,58 @@
         <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>2644</v>
+        <v>2380</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>705</v>
+        <v>6210</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>3349</v>
+        <v>8590</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6210</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1925</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>12</v>
-      </c>
-      <c r="N19" s="7">
-        <v>8135</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>455</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>455</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7">
-        <v>6210</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>4</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2380</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>13</v>
-      </c>
-      <c r="N21" s="7">
-        <v>8590</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>55</v>
+      <c r="A19" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
